--- a/pred_ohlcv/54_21/2019-11-20 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 LBA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-65142.18481346047</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-193357.1325134605</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-193357.1325134605</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-193374.1421134605</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-191750.8042134604</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-190351.2965134604</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-237719.3177134604</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-248131.0506134604</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-225937.0105134604</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-214668.2318134604</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-214668.2318134604</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-214618.2318134604</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-223121.6355134604</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-213123.3086002771</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-215561.7009002772</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-231989.3961002771</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-183881.8295002771</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-176840.1955002772</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-178955.4505002772</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1199.236700277164</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1058.190099722836</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-123397.0777002772</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-88469.37450027716</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-79863.93050027716</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-17383.79560027716</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-208638.0207002772</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-208339.6598002772</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-169427.0498002772</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-155650.5527002772</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-184390.0654002771</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-150961.8066002772</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-168853.5950002772</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>135193.2479997228</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2532.123200277158</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4173.623099722842</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-33519.45210027716</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-33519.45210027716</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-92070.73460027715</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-91305.60500027715</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-89792.34963403511</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-109792.3496340351</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-84606.40013403511</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-84606.40013403511</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-95236.2514340351</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-95236.2514340351</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-87812.7033340351</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-99556.3715340351</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-352493.8713340351</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-348786.5748340351</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-348786.5748340351</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-385219.0783455</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-386410.3584455</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-381393.4494455</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-384576.6517455</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-383076.6517455</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-384207.8007455</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-384207.8007455</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-366200.0372455</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>701571.1798429315</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>523531.7823429315</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>518194.0183429315</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>523480.8077429315</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>523480.8077429315</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>671735.6948429315</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1034279.88108836</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>637053.9177883596</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>384739.5078883596</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>298594.2110883596</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>64119.16208835959</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12591.58171164041</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>30775.44794781689</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>30775.44794781689</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-162621.0939286162</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-435136.7698286162</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-531576.0037286162</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-432499.6061286161</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-868911.3584286161</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2947604.439228616</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2947604.439228616</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2873918.879828616</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2873918.879828616</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2882845.330928616</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2855405.953928616</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-3198665.226128616</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3186736.728028616</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3186706.728028616</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-3186706.728028616</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-3186161.251128616</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-3182112.925528616</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-3113511.928328615</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3109501.345728615</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-3299184.053528615</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3306462.858328615</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2393673.781059905</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2404471.173559905</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2484912.027859906</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2485018.827559906</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2469086.616059905</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2676399.141759905</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2676399.141759905</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2821302.937459906</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2821128.961159905</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2778052.520359906</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2778052.520359906</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2962159.635959907</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2954900.508459907</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-3276449.348059906</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-3226507.962959906</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-3226507.962959906</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-3223926.616059906</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-3232788.309259906</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-3232788.309259906</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-3306594.347659907</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-3306594.347659907</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-3320739.795759907</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-3241345.237659907</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3242401.062659907</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-3242753.805459907</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-3212678.232959908</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-3201961.089459908</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-3201961.089459908</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-3018759.139359908</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-3141792.339559908</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-3138708.106059908</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-3400121.465459908</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-3387853.737959908</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-3300296.984759908</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-3398512.244659909</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-3398488.666659908</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3421824.574359908</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-3472220.235959908</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-3403590.084859909</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3403555.517059909</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-3404614.964359909</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-3404537.964359909</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-3402756.702659909</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-3402772.989359909</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-3406685.122959909</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-3479592.897959908</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-3450584.414159908</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-3450617.309359909</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-3450617.309359909</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-3598223.381959909</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-3598223.381959909</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-3683408.294559909</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-3660303.557591802</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-3660345.950391802</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-4011911.697491801</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-4013497.258591801</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-4213497.506091801</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-4196529.637991802</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-4239844.533991802</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-4162191.476691802</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-4156849.775091802</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-4182040.581591802</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-4208392.138891802</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-4143783.952991802</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-4144083.952991802</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-4144083.952991802</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-4144083.952991802</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-4141583.952991802</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-4163089.581291802</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-4157088.259591802</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-4152251.780191802</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-4153924.387991802</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-4153267.800191802</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-4152944.243791802</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-4153267.800191802</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-4153267.800191802</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-4152444.403591802</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-4135987.459291802</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-4135987.459291802</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-4135987.459291802</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 LBA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-65142.18481346047</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-163048.7729134605</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-193357.1325134605</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-193357.1325134605</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-193374.1421134605</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-191750.8042134604</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-190351.2965134604</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-237719.3177134604</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-248131.0506134604</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-225937.0105134604</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-214668.2318134604</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-214668.2318134604</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-214618.2318134604</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-223121.6355134604</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-213123.3086002771</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-215561.7009002772</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-231989.3961002771</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-183881.8295002771</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-176840.1955002772</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-178955.4505002772</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1199.236700277164</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1058.190099722836</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-123397.0777002772</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-88469.37450027716</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-79863.93050027716</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7935.664700277164</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-17383.79560027716</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-208638.0207002772</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-208339.6598002772</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-169427.0498002772</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-155650.5527002772</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-184390.0654002771</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-150961.8066002772</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-168853.5950002772</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>135193.2479997228</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2532.123200277158</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4173.623099722842</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-33519.45210027716</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-33519.45210027716</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-92070.73460027715</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-91305.60500027715</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-89792.34963403511</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-109792.3496340351</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-84606.40013403511</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-84606.40013403511</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-95236.2514340351</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-95236.2514340351</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-87812.7033340351</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-99556.3715340351</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-352493.8713340351</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-348786.5748340351</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-348786.5748340351</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-382419.0210455001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-385219.0783455</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-386410.3584455</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-381393.4494455</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-384576.6517455</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-383076.6517455</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-384207.8007455</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-384207.8007455</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-366200.0372455</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>701571.1798429315</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>523531.7823429315</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>518194.0183429315</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>523480.8077429315</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>523480.8077429315</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>671735.6948429315</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>906265.2188917267</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1091354.389684848</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1318174.124688359</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1034279.88108836</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1064940.86788836</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>637053.9177883596</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>384739.5078883596</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>298594.2110883596</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>64119.16208835959</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>30775.44794781689</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>30775.44794781689</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-162621.0939286162</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-435136.7698286162</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-531576.0037286162</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-432499.6061286161</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-868911.3584286161</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3112951.345728615</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-3299174.053528615</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2393673.781059905</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2404471.173559905</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2484912.027859906</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2485018.827559906</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2469086.616059905</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2676399.141759905</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2676399.141759905</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2821302.937459906</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2821128.961159905</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2778052.520359906</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2778052.520359906</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2962159.635959907</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2954900.508459907</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-3148735.238359906</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-3171279.390959906</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-3280024.276459906</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-3276449.348059906</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-3276449.348059906</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3239741.719259906</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-3229798.205859906</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-3226507.962959906</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-3226507.962959906</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-3223926.616059906</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-3232788.309259906</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-3232788.309259906</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-3225288.309259906</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-3320739.795759907</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-3419425.113959907</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-3229320.753059907</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-3241345.237659907</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3242401.062659907</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-3242753.805459907</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-3241281.232959908</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-3212678.232959908</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-3201961.089459908</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-3018759.139359908</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-3141792.339559908</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-3138708.106059908</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-3400121.465459908</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-3387853.737959908</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-3300296.984759908</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-3398512.244659909</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-3398488.666659908</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3421824.574359908</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-3472220.235959908</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-3403590.084859909</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3403555.517059909</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-3404614.964359909</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-3404537.964359909</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-3402756.702659909</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-3402772.989359909</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-3406685.122959909</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-3479592.897959908</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-3450584.414159908</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-3450617.309359909</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-3450617.309359909</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-3598223.381959909</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-3598223.381959909</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-3683408.294559909</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-3660303.557591802</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-3660345.950391802</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-4011911.697491801</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-4013497.258591801</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-4213497.506091801</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-4196529.637991802</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-4239844.533991802</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-4162191.476691802</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-4156849.775091802</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-4154305.191491802</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-4182040.581591802</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-4145245.493991802</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-4207846.387291802</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-4208392.138891802</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-4144283.952991802</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-4143783.952991802</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-4144083.952991802</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-4144083.952991802</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-4144083.952991802</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-4141583.952991802</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-4141583.952991802</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-4136507.176091802</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-4149798.378691802</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-4149798.378691802</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-4163089.581291802</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-4157121.704491802</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-4135967.459291802</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-4135967.459291802</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-4192005.459291802</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-4192005.459291802</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-4192005.459291802</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-4162905.459291802</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
